--- a/dem-data.xlsx
+++ b/dem-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/High flow PACU/hfnpsrma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="11_F25DC773A252ABDACC10480F491B416A5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC9D5DB0-F52F-482F-BC53-65B9AD95E7C3}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="11_F25DC773A252ABDACC10480F491B416A5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7091466A-539B-4B79-883A-2DDAA520A404}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="615" windowWidth="21510" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="134">
   <si>
     <t>author</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>surgery</t>
   </si>
   <si>
@@ -89,85 +86,133 @@
     <t>yes</t>
   </si>
   <si>
-    <t>atelectasis</t>
+    <t>bmi&gt;35</t>
+  </si>
+  <si>
+    <t>atelectasis at 24 hour by ???</t>
   </si>
   <si>
     <t>cpap</t>
   </si>
   <si>
+    <t>1 hr every 4 hour for 24 hour</t>
+  </si>
+  <si>
     <t>Ansari</t>
   </si>
   <si>
     <t>thoracic</t>
   </si>
   <si>
-    <t>6mwt</t>
+    <t>all-comer</t>
+  </si>
+  <si>
+    <t>6mwt pod2</t>
   </si>
   <si>
     <t>Airvo</t>
   </si>
   <si>
-    <t>standard oxygen therapy</t>
+    <t>np or fm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 hour </t>
   </si>
   <si>
     <t>Brainard</t>
   </si>
   <si>
+    <t>planned icu admission</t>
+  </si>
+  <si>
     <t>composite reintubation, hypoxemia, pneumonia, niv</t>
   </si>
   <si>
+    <t>Maxventuri</t>
+  </si>
+  <si>
+    <t>48 hour</t>
+  </si>
+  <si>
     <t>Burra</t>
   </si>
   <si>
     <t>cardiac</t>
   </si>
   <si>
-    <t>pH, paCO2, paO2</t>
-  </si>
-  <si>
-    <t>THRIVE</t>
+    <t>pH, paCO2, paO2 at 1, 2, 4hr</t>
   </si>
   <si>
     <t>np</t>
   </si>
   <si>
+    <t>4 hours</t>
+  </si>
+  <si>
     <t>Chen</t>
   </si>
   <si>
     <t>laparoscopic</t>
   </si>
   <si>
-    <t>incidence of hypoxemia</t>
+    <t>age&gt;65</t>
+  </si>
+  <si>
+    <t>incidence of hypoxemia until pacu discharge</t>
+  </si>
+  <si>
+    <t>not clear</t>
   </si>
   <si>
     <t>Corley</t>
   </si>
   <si>
+    <t>bmi&gt;30</t>
+  </si>
+  <si>
+    <t>atelectasis pod1 by ???</t>
+  </si>
+  <si>
     <t>Optiflow</t>
   </si>
   <si>
-    <t>np or fm</t>
+    <t>minimum of 8 hours</t>
   </si>
   <si>
     <t>El-Nori</t>
   </si>
   <si>
-    <t>composite hypoxemia</t>
+    <t>composite hypoxemia in hospital</t>
+  </si>
+  <si>
+    <t>minimum of 48 hours</t>
   </si>
   <si>
     <t>Ferrando</t>
   </si>
   <si>
-    <t>hypoxemia</t>
+    <t>hypoxemia at 3 hour</t>
   </si>
   <si>
     <t>venturi</t>
   </si>
   <si>
+    <t>minimum of 3 hours</t>
+  </si>
+  <si>
     <t>Fogagnolo</t>
   </si>
   <si>
-    <t>diaphragmatic dysfunction</t>
+    <t>asa1,2 bmi&lt;35</t>
+  </si>
+  <si>
+    <t>diaphragmatic dysfunction at 24 hour</t>
+  </si>
+  <si>
+    <t>Airvo2</t>
+  </si>
+  <si>
+    <t>minimum of 24 hours</t>
   </si>
   <si>
     <t>Frassanito</t>
@@ -176,18 +221,18 @@
     <t>gynecologic</t>
   </si>
   <si>
+    <t>bmi&lt;35</t>
+  </si>
+  <si>
     <t>PF ratio at 2 hr</t>
   </si>
   <si>
-    <t>Airvo2</t>
+    <t>minimum of 2 hours</t>
   </si>
   <si>
     <t>Fulton</t>
   </si>
   <si>
-    <t>all-comer</t>
-  </si>
-  <si>
     <t>End expiratory lung impedence at 1 hr</t>
   </si>
   <si>
@@ -209,7 +254,7 @@
     <t>hypoxemia in 1 hour</t>
   </si>
   <si>
-    <t>until 7-8am the next day</t>
+    <t>until 7-8am pod1</t>
   </si>
   <si>
     <t>Li</t>
@@ -245,49 +290,154 @@
     <t>Parke</t>
   </si>
   <si>
+    <t>SpO2/FiO2 &gt; 445 at day 3</t>
+  </si>
+  <si>
+    <t>until 9am pod2</t>
+  </si>
+  <si>
     <t>Pennisi</t>
   </si>
   <si>
+    <t>Incidence PF ratio &lt; 300 during first 4 days</t>
+  </si>
+  <si>
     <t>Rosén</t>
   </si>
   <si>
+    <t>PaO2 at 60 min</t>
+  </si>
+  <si>
+    <t>60 min</t>
+  </si>
+  <si>
     <t>Sahin</t>
   </si>
   <si>
+    <t>na</t>
+  </si>
+  <si>
     <t>Shiho</t>
   </si>
   <si>
+    <t>no lung and kidney dx</t>
+  </si>
+  <si>
+    <t>Aerosol mask</t>
+  </si>
+  <si>
     <t>Soliman</t>
   </si>
   <si>
     <t>gastrointestinal</t>
   </si>
   <si>
+    <t>no lung dx, bmi&lt;35</t>
+  </si>
+  <si>
+    <t>PPC up to 5 days</t>
+  </si>
+  <si>
+    <t>6 hours then wean</t>
+  </si>
+  <si>
     <t>Stéphan</t>
   </si>
   <si>
+    <t>failed SBT or extubation</t>
+  </si>
+  <si>
+    <t>Treatment failure</t>
+  </si>
+  <si>
+    <t>bipap</t>
+  </si>
+  <si>
+    <t>continue until wean or failure</t>
+  </si>
+  <si>
     <t>Sun</t>
   </si>
   <si>
+    <t>asa1,2 bmi&lt;30</t>
+  </si>
+  <si>
+    <t>atelectasis by lung us</t>
+  </si>
+  <si>
+    <t>while in PACU</t>
+  </si>
+  <si>
     <t>Tatsuishi</t>
   </si>
   <si>
+    <t>all opcab</t>
+  </si>
+  <si>
+    <t>lung volume reduction by CT</t>
+  </si>
+  <si>
+    <t>18 hour</t>
+  </si>
+  <si>
     <t>Theologou</t>
   </si>
   <si>
+    <t>PF ratio &lt; 200 after SBT</t>
+  </si>
+  <si>
+    <t>treatment failure</t>
+  </si>
+  <si>
     <t>Tsai</t>
   </si>
   <si>
     <t>non-cardiac</t>
   </si>
   <si>
+    <t>&gt; moderate OSA</t>
+  </si>
+  <si>
+    <t>episodes of SaO2 drop by 4%</t>
+  </si>
+  <si>
+    <t>10pm to 8am</t>
+  </si>
+  <si>
+    <t>multiple HF groups</t>
+  </si>
+  <si>
     <t>Vourc'h</t>
   </si>
   <si>
+    <t>SaO2 &lt; 96% on 50% Venturi</t>
+  </si>
+  <si>
+    <t>PF ratio at 1 and 24 hour</t>
+  </si>
+  <si>
+    <t>nrb</t>
+  </si>
+  <si>
+    <t>48 hours</t>
+  </si>
+  <si>
     <t>Yu</t>
   </si>
   <si>
+    <t>&gt; moderate risk for PPC</t>
+  </si>
+  <si>
+    <t>Incidence of hypoxemia in 72hr</t>
+  </si>
+  <si>
     <t>Zochios</t>
+  </si>
+  <si>
+    <t>copd, asthma, bmi&gt;35</t>
+  </si>
+  <si>
+    <t>hospital stay</t>
   </si>
 </sst>
 </file>
@@ -629,23 +779,25 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -681,539 +833,725 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="15.75">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75">
-      <c r="A2" s="2" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2">
-        <v>2024</v>
-      </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
       <c r="M2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75">
+      <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75">
+      <c r="A14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75">
+      <c r="A15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75">
+      <c r="A16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30">
+      <c r="A17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75">
+      <c r="A18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75">
+      <c r="A19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75">
+      <c r="A20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75">
+      <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75">
+      <c r="A22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75">
+      <c r="A23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75">
+      <c r="A24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" t="s">
+        <v>112</v>
+      </c>
+      <c r="L24" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75">
+      <c r="A25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75">
+      <c r="A26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" t="s">
+        <v>120</v>
+      </c>
+      <c r="L26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2016</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M26" t="s">
+        <v>121</v>
+      </c>
+      <c r="N26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75">
+      <c r="A27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" t="s">
+        <v>126</v>
+      </c>
+      <c r="M27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75">
+      <c r="A28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="30.75">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2017</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75">
-      <c r="A5" s="3" t="s">
+      <c r="M28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75">
+      <c r="A29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" t="s">
+        <v>133</v>
+      </c>
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2">
-        <v>2021</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2015</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2023</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75">
-      <c r="A10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75">
-      <c r="A11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2023</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2021</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2016</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75">
-      <c r="A14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2022</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75">
-      <c r="A15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2024</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75">
-      <c r="A16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2013</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2022</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2018</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2022</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2022</v>
-      </c>
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2015</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2024</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2020</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2021</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2022</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2020</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2017</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2018</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L29">
     <sortCondition ref="A2:A29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dem-data.xlsx
+++ b/dem-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/High flow PACU/hfnpsrma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="11_F25DC773A252ABDACC10480F491B416A5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7091466A-539B-4B79-883A-2DDAA520A404}"/>
+  <xr:revisionPtr revIDLastSave="381" documentId="11_F25DC773A252ABDACC10480F491B416A5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7966C25-930D-44A4-BF6B-1FF3F504B111}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23736" yWindow="4152" windowWidth="22440" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="148">
   <si>
     <t>author</t>
   </si>
@@ -323,9 +323,6 @@
     <t>no lung and kidney dx</t>
   </si>
   <si>
-    <t>Aerosol mask</t>
-  </si>
-  <si>
     <t>Soliman</t>
   </si>
   <si>
@@ -438,13 +435,58 @@
   </si>
   <si>
     <t>hospital stay</t>
+  </si>
+  <si>
+    <t>highrisk</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>escalate</t>
+  </si>
+  <si>
+    <t>tachypnea, dyspnea, sao&lt;90, increased map, wob</t>
+  </si>
+  <si>
+    <t>at discretion of clinician</t>
+  </si>
+  <si>
+    <t>hypoxemia</t>
+  </si>
+  <si>
+    <t>pf&lt;300</t>
+  </si>
+  <si>
+    <t>respiratory distress not improved for 2 hr</t>
+  </si>
+  <si>
+    <t>cv instability, resp arrest, resp acidosis (ph &lt; 7.3, pco&gt;50), encephalopathy, refractory hypoxemia (&lt;88% on 100%fi)</t>
+  </si>
+  <si>
+    <t>SpO2 &lt; 92% while breathing at least 10 L/min oxygen, PaO2 &lt; 60mmHg on air or PaO2 &lt; 80mmHg while breathing any supplemental oxygen; pf&lt;300</t>
+  </si>
+  <si>
+    <t>respiratory acidosi (ph&lt;7.35, paco&gt;45) spo&lt;90, pao&lt;60 at fi&gt;50, rr&gt;35, wob</t>
+  </si>
+  <si>
+    <t>rob</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>some concerns</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +507,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
@@ -488,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -496,6 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,6 +559,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -776,782 +828,989 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.42578125" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.44140625" customWidth="1"/>
+    <col min="16" max="16" width="22.77734375" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75">
+    <row r="1" spans="1:17" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75">
-      <c r="A2" s="2" t="s">
+      <c r="P1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.6">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75">
+    <row r="3" spans="1:17" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30">
+    <row r="4" spans="1:17" ht="28.8">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
       <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75">
+    <row r="5" spans="1:17" ht="15.6">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>24</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30">
+    <row r="6" spans="1:17" ht="28.8">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>35</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75">
+    <row r="7" spans="1:17" ht="15.6">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
         <v>43</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>25</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75">
+      <c r="P7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.6">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
       <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>48</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>25</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75">
+    <row r="9" spans="1:17" ht="15.6">
       <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
         <v>16</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>51</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>45</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>52</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75">
+    <row r="10" spans="1:17" ht="15.6">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" t="s">
         <v>55</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>56</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>57</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>25</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" t="s">
         <v>61</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>62</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>57</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>52</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1">
+    <row r="12" spans="1:17" ht="18" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
         <v>22</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>65</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>57</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75">
+    <row r="13" spans="1:17" ht="15.6">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
         <v>69</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
         <v>70</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>71</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>45</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>25</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75">
+      <c r="P13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.6">
       <c r="A14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
         <v>74</v>
       </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
         <v>75</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>76</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>66</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75">
+    <row r="15" spans="1:17" ht="15.6">
       <c r="A15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
         <v>79</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
         <v>80</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>62</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>81</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75">
+    <row r="16" spans="1:17" ht="15.6">
       <c r="A16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
       <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
         <v>22</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>84</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>45</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>25</v>
       </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="30">
+      <c r="P16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.6">
       <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>57</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>52</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75">
+      <c r="P17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.6">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
         <v>16</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>89</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>35</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75">
+    <row r="19" spans="1:17" ht="15.6">
       <c r="A19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
         <v>43</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>41</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>45</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>66</v>
       </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75">
+      <c r="P19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.6">
       <c r="A20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
       <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" t="s">
         <v>94</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>89</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.6">
+      <c r="A21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L20" t="s">
+      <c r="B21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.6">
+      <c r="A22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" t="s">
+        <v>103</v>
+      </c>
+      <c r="O22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.6">
+      <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.6">
+      <c r="A24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" t="s">
+        <v>111</v>
+      </c>
+      <c r="N24" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.6">
+      <c r="A25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25" t="s">
         <v>52</v>
       </c>
-      <c r="M20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75">
-      <c r="A21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75">
-      <c r="A22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="O25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.6">
+      <c r="A26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s">
+        <v>118</v>
+      </c>
+      <c r="L26" t="s">
+        <v>119</v>
+      </c>
+      <c r="N26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" t="s">
+        <v>120</v>
+      </c>
+      <c r="P26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.6">
+      <c r="A27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>102</v>
-      </c>
-      <c r="J22" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" t="s">
+        <v>123</v>
+      </c>
+      <c r="L27" t="s">
+        <v>124</v>
+      </c>
+      <c r="M27" t="s">
         <v>45</v>
       </c>
-      <c r="L22" t="s">
-        <v>104</v>
-      </c>
-      <c r="M22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75">
-      <c r="A23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" t="s">
-        <v>107</v>
-      </c>
-      <c r="J23" t="s">
-        <v>108</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="N27" t="s">
+        <v>125</v>
+      </c>
+      <c r="O27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.6">
+      <c r="A28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" t="s">
+        <v>129</v>
+      </c>
+      <c r="M28" t="s">
         <v>45</v>
       </c>
-      <c r="L23" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75">
-      <c r="A24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.6">
+      <c r="A29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
         <v>33</v>
       </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>111</v>
-      </c>
-      <c r="J24" t="s">
-        <v>112</v>
-      </c>
-      <c r="L24" t="s">
-        <v>66</v>
-      </c>
-      <c r="M24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75">
-      <c r="A25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>115</v>
-      </c>
-      <c r="J25" t="s">
-        <v>116</v>
-      </c>
-      <c r="K25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" t="s">
-        <v>52</v>
-      </c>
-      <c r="M25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75">
-      <c r="A26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>119</v>
-      </c>
-      <c r="J26" t="s">
-        <v>120</v>
-      </c>
-      <c r="L26" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" t="s">
-        <v>121</v>
-      </c>
-      <c r="N26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75">
-      <c r="A27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>124</v>
-      </c>
-      <c r="J27" t="s">
-        <v>125</v>
-      </c>
-      <c r="K27" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15.75">
-      <c r="A28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" t="s">
-        <v>130</v>
-      </c>
-      <c r="K28" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" t="s">
+        <v>131</v>
+      </c>
+      <c r="L29" t="s">
+        <v>132</v>
+      </c>
+      <c r="N29" t="s">
         <v>25</v>
       </c>
-      <c r="M28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75">
-      <c r="A29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" t="s">
-        <v>133</v>
-      </c>
-      <c r="L29" t="s">
-        <v>25</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="O29" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N29">
     <sortCondition ref="A2:A29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
